--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1425800.842812143</v>
+        <v>1421789.040080046</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518386</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140341</v>
+        <v>6432656.960140343</v>
       </c>
     </row>
     <row r="9">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>235.8159149682283</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.04236988161365</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>300.1999261456241</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>44.97756603040693</v>
+        <v>60.54045909350837</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.48994447064856</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T13" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1609,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1621,10 +1621,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>202.8886241835539</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>77.95336348818586</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>92.05003690140326</v>
       </c>
       <c r="H15" t="n">
-        <v>42.57408601892042</v>
+        <v>42.57408601892043</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>60.76258397304345</v>
+        <v>60.76258397304346</v>
       </c>
       <c r="T15" t="n">
         <v>136.1757056744559</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>21.41609356890149</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648553</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>152.8999186087154</v>
@@ -1821,7 +1821,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U16" t="n">
-        <v>271.6897499890475</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>36.22838850129327</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>195.5493423488046</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>24.21731013448096</v>
       </c>
       <c r="F19" t="n">
-        <v>69.53882383313446</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648567</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>39.26331152131755</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>57.20223144983481</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>22.30754506344899</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U22" t="n">
-        <v>140.1918251770593</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
         <v>274.5392124624013</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T23" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V23" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>117.9616320275664</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.52873769925172</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2560,19 +2560,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H26" t="n">
-        <v>229.4599967829317</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>29.65524186990802</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898732</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>162.2802901214332</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>207.7787586943459</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
         <v>255.612391572116</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S31" t="n">
         <v>152.8999186087154</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>107.8257438255558</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>243.5428040031348</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S34" t="n">
         <v>152.8999186087154</v>
@@ -3274,16 +3274,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>419.073548044814</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>143.6901051212855</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>392.4274362026566</v>
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>26.62073320630297</v>
+        <v>9.267814325145046</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S37" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>237.097464026797</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>168.0132652396199</v>
+        <v>396.7656558320676</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -3514,13 +3514,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>91.34989259577154</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>15.75775879579395</v>
       </c>
       <c r="T40" t="n">
         <v>237.097464026797</v>
@@ -3726,7 +3726,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>389.7838137938496</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>154.5511006406563</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>51.12214921202343</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>15.75775879579366</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>214.4761632390908</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>21.19946465839062</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
         <v>392.4274362026566</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>9.267814325145046</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
         <v>237.097464026797</v>
@@ -4194,10 +4194,10 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>233.9879389711463</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1383.890150221121</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="C11" t="n">
-        <v>1383.890150221121</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="D11" t="n">
-        <v>960.5975294061209</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E11" t="n">
-        <v>960.5975294061209</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G11" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103585</v>
+        <v>84.39494262103608</v>
       </c>
       <c r="J11" t="n">
-        <v>222.236059607204</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715609998</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L11" t="n">
-        <v>709.5851800848318</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M11" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N11" t="n">
         <v>1332.070421635641</v>
@@ -5062,31 +5062,31 @@
         <v>1872.202557977127</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.878716272601</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R11" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="S11" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>2137.770914794524</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U11" t="n">
-        <v>2137.770914794524</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V11" t="n">
-        <v>1780.281499920774</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W11" t="n">
-        <v>1383.890150221121</v>
+        <v>1305.576538790885</v>
       </c>
       <c r="X11" t="n">
-        <v>1383.890150221121</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="Y11" t="n">
-        <v>1383.890150221121</v>
+        <v>893.8565399586328</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745218</v>
+        <v>62.98439029745217</v>
       </c>
       <c r="J12" t="n">
-        <v>404.4659091426538</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K12" t="n">
-        <v>552.2568635109021</v>
+        <v>552.2568635109022</v>
       </c>
       <c r="L12" t="n">
-        <v>758.507453133302</v>
+        <v>758.5074531333021</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.337654088803</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N12" t="n">
         <v>1254.962719722999</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.9511842536721</v>
+        <v>770.7615564158607</v>
       </c>
       <c r="C13" t="n">
-        <v>223.9786211325881</v>
+        <v>598.7889932947767</v>
       </c>
       <c r="D13" t="n">
-        <v>223.9786211325881</v>
+        <v>435.4722204215474</v>
       </c>
       <c r="E13" t="n">
-        <v>223.9786211325881</v>
+        <v>269.2640145744009</v>
       </c>
       <c r="F13" t="n">
-        <v>178.5467362533892</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G13" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H13" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J13" t="n">
         <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>491.6854607613572</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>977.5688445445702</v>
+        <v>601.1799509534052</v>
       </c>
       <c r="M13" t="n">
-        <v>1096.275006445852</v>
+        <v>1130.27825236505</v>
       </c>
       <c r="N13" t="n">
-        <v>1210.770261587372</v>
+        <v>1642.80643034845</v>
       </c>
       <c r="O13" t="n">
-        <v>1690.926608658705</v>
+        <v>1745.26045311658</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329223</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S13" t="n">
-        <v>2131.215415329223</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T13" t="n">
-        <v>1891.723027423367</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U13" t="n">
-        <v>1611.587689049649</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="V13" t="n">
-        <v>1329.876221657678</v>
+        <v>1462.122697265671</v>
       </c>
       <c r="W13" t="n">
-        <v>1055.023817830191</v>
+        <v>1187.270293438184</v>
       </c>
       <c r="X13" t="n">
-        <v>812.4599212759957</v>
+        <v>1187.270293438184</v>
       </c>
       <c r="Y13" t="n">
-        <v>586.1171529657378</v>
+        <v>960.9275251279264</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1522.087164999444</v>
+        <v>2000.401487148262</v>
       </c>
       <c r="C14" t="n">
-        <v>1522.087164999444</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="D14" t="n">
-        <v>1098.794544184445</v>
+        <v>1573.500757161562</v>
       </c>
       <c r="E14" t="n">
-        <v>672.8176043323023</v>
+        <v>1147.523817309419</v>
       </c>
       <c r="F14" t="n">
-        <v>247.6934225217025</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G14" t="n">
-        <v>247.6934225217025</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I14" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J14" t="n">
         <v>222.2360596072047</v>
@@ -5284,10 +5284,10 @@
         <v>437.0691715610005</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848327</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M14" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N14" t="n">
         <v>1332.070421635641</v>
@@ -5299,31 +5299,31 @@
         <v>1872.202557977127</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.878716272601</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R14" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="S14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T14" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U14" t="n">
-        <v>1879.576579873195</v>
+        <v>2000.401487148262</v>
       </c>
       <c r="V14" t="n">
-        <v>1522.087164999444</v>
+        <v>2000.401487148262</v>
       </c>
       <c r="W14" t="n">
-        <v>1522.087164999444</v>
+        <v>2000.401487148262</v>
       </c>
       <c r="X14" t="n">
-        <v>1522.087164999444</v>
+        <v>2000.401487148262</v>
       </c>
       <c r="Y14" t="n">
-        <v>1522.087164999444</v>
+        <v>2000.401487148262</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745218</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377163</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059646</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L15" t="n">
-        <v>496.0652591283645</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M15" t="n">
-        <v>739.8954600838661</v>
+        <v>1002.337654088804</v>
       </c>
       <c r="N15" t="n">
         <v>1254.962719722999</v>
@@ -5378,7 +5378,7 @@
         <v>1661.89523739668</v>
       </c>
       <c r="Q15" t="n">
-        <v>1773.734692887499</v>
+        <v>1773.7346928875</v>
       </c>
       <c r="R15" t="n">
         <v>1815.649874842555</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>716.1147343627898</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="C16" t="n">
-        <v>544.1421712417058</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="D16" t="n">
-        <v>380.8253983684765</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="E16" t="n">
-        <v>214.6171925213301</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F16" t="n">
-        <v>42.75541829589049</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G16" t="n">
-        <v>42.75541829589049</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H16" t="n">
-        <v>42.75541829589049</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J16" t="n">
         <v>162.634922133069</v>
       </c>
       <c r="K16" t="n">
-        <v>491.6854607613572</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L16" t="n">
-        <v>859.6023110688373</v>
+        <v>601.1799509534052</v>
       </c>
       <c r="M16" t="n">
-        <v>1388.700612480482</v>
+        <v>1130.27825236505</v>
       </c>
       <c r="N16" t="n">
-        <v>1901.228790463882</v>
+        <v>1642.80643034845</v>
       </c>
       <c r="O16" t="n">
-        <v>2003.682813232013</v>
+        <v>1745.26045311658</v>
       </c>
       <c r="P16" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q16" t="n">
         <v>2137.770914794524</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329223</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098197</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.278665192341</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U16" t="n">
-        <v>1462.844574294314</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V16" t="n">
-        <v>1181.133106902342</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W16" t="n">
-        <v>906.2807030748554</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X16" t="n">
-        <v>906.2807030748554</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="Y16" t="n">
-        <v>906.2807030748554</v>
+        <v>438.2282902000135</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>467.8796001064903</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="C17" t="n">
-        <v>467.8796001064903</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="D17" t="n">
-        <v>467.8796001064903</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E17" t="n">
-        <v>467.8796001064903</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F17" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103614</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K17" t="n">
         <v>437.0691715610004</v>
@@ -5527,40 +5527,40 @@
         <v>1017.958031365649</v>
       </c>
       <c r="N17" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q17" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U17" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V17" t="n">
-        <v>2101.176582975036</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="W17" t="n">
-        <v>1704.785233275383</v>
+        <v>1325.261493775045</v>
       </c>
       <c r="X17" t="n">
-        <v>1293.06523444313</v>
+        <v>1127.736905543929</v>
       </c>
       <c r="Y17" t="n">
-        <v>887.7279643980203</v>
+        <v>722.3996354988195</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C18" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D18" t="n">
         <v>377.0871448858306</v>
@@ -5585,37 +5585,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G18" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J18" t="n">
-        <v>404.465909142654</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K18" t="n">
-        <v>552.2568635109022</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L18" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M18" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N18" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O18" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P18" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q18" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R18" t="n">
         <v>1815.649874842555</v>
@@ -5636,10 +5636,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X18" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y18" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>586.1171529657373</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="C19" t="n">
-        <v>414.1445898446533</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="D19" t="n">
-        <v>414.1445898446533</v>
+        <v>67.21734772465911</v>
       </c>
       <c r="E19" t="n">
-        <v>414.1445898446533</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F19" t="n">
-        <v>343.903353649568</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G19" t="n">
-        <v>178.5467362533892</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J19" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K19" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L19" t="n">
-        <v>353.897341839383</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M19" t="n">
-        <v>882.9956432510278</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N19" t="n">
-        <v>1395.523821234428</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O19" t="n">
-        <v>1875.680168305762</v>
+        <v>1688.196505394377</v>
       </c>
       <c r="P19" t="n">
-        <v>1960.249713953908</v>
+        <v>1936.878861502259</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S19" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T19" t="n">
-        <v>1891.723027423367</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U19" t="n">
-        <v>1611.587689049648</v>
+        <v>1618.143188514949</v>
       </c>
       <c r="V19" t="n">
-        <v>1329.876221657677</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W19" t="n">
-        <v>1055.02381783019</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X19" t="n">
-        <v>812.4599212759953</v>
+        <v>819.015420741296</v>
       </c>
       <c r="Y19" t="n">
-        <v>586.1171529657373</v>
+        <v>592.672652431038</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2079.14225834845</v>
+        <v>484.7472103058057</v>
       </c>
       <c r="C20" t="n">
-        <v>1652.24152836175</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="D20" t="n">
-        <v>1228.94890754675</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E20" t="n">
-        <v>802.9719676946075</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F20" t="n">
-        <v>377.8477858840077</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072044</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610003</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L20" t="n">
-        <v>709.5851800848321</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
         <v>1626.510864636164</v>
@@ -5773,31 +5773,31 @@
         <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T20" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U20" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V20" t="n">
-        <v>2079.14225834845</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="W20" t="n">
-        <v>2079.14225834845</v>
+        <v>1721.652843474698</v>
       </c>
       <c r="X20" t="n">
-        <v>2079.14225834845</v>
+        <v>1309.932844642445</v>
       </c>
       <c r="Y20" t="n">
-        <v>2079.14225834845</v>
+        <v>904.5955745973357</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,22 +5822,22 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745217</v>
+        <v>62.98439029745214</v>
       </c>
       <c r="J21" t="n">
-        <v>404.465909142654</v>
+        <v>404.4659091426541</v>
       </c>
       <c r="K21" t="n">
-        <v>552.2568635109022</v>
+        <v>552.2568635109023</v>
       </c>
       <c r="L21" t="n">
-        <v>758.5074531333021</v>
+        <v>758.5074531333022</v>
       </c>
       <c r="M21" t="n">
         <v>1002.337654088804</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>386.589755642414</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="C22" t="n">
-        <v>214.6171925213301</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="D22" t="n">
-        <v>214.6171925213301</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="E22" t="n">
-        <v>214.6171925213301</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="F22" t="n">
-        <v>42.75541829589048</v>
+        <v>230.6449094935328</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>65.28829209735409</v>
       </c>
       <c r="H22" t="n">
-        <v>42.75541829589048</v>
+        <v>65.28829209735409</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J22" t="n">
-        <v>162.634922133069</v>
+        <v>84.71320548484806</v>
       </c>
       <c r="K22" t="n">
-        <v>491.6854607613571</v>
+        <v>166.4811349991141</v>
       </c>
       <c r="L22" t="n">
-        <v>601.1799509534052</v>
+        <v>652.3645187823271</v>
       </c>
       <c r="M22" t="n">
-        <v>717.1560095903587</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N22" t="n">
-        <v>1229.684187573759</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O22" t="n">
-        <v>1709.840534645092</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P22" t="n">
-        <v>2088.252358880159</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.326552563498</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T22" t="n">
-        <v>1743.834164657643</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U22" t="n">
-        <v>1602.226260438391</v>
+        <v>1618.143188514949</v>
       </c>
       <c r="V22" t="n">
-        <v>1320.51479304642</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W22" t="n">
-        <v>1045.662389218933</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X22" t="n">
-        <v>803.0984926647377</v>
+        <v>819.015420741296</v>
       </c>
       <c r="Y22" t="n">
-        <v>576.7557243544798</v>
+        <v>592.672652431038</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1190.260696741012</v>
+        <v>1592.592578123333</v>
       </c>
       <c r="C23" t="n">
-        <v>763.3599667543117</v>
+        <v>1165.691848136633</v>
       </c>
       <c r="D23" t="n">
-        <v>763.3599667543117</v>
+        <v>1165.691848136633</v>
       </c>
       <c r="E23" t="n">
-        <v>337.3830269021693</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F23" t="n">
-        <v>337.3830269021693</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G23" t="n">
         <v>337.3830269021693</v>
@@ -5986,55 +5986,55 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I23" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
         <v>631.2805511005022</v>
       </c>
       <c r="K23" t="n">
-        <v>846.1136630542981</v>
+        <v>1150.594152566822</v>
       </c>
       <c r="L23" t="n">
-        <v>1118.62967157813</v>
+        <v>1423.110161090654</v>
       </c>
       <c r="M23" t="n">
-        <v>1427.002522858947</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N23" t="n">
-        <v>1741.114913128938</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O23" t="n">
-        <v>2035.555356129462</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P23" t="n">
-        <v>2281.247049470424</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R23" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T23" t="n">
-        <v>2791.395418073806</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U23" t="n">
-        <v>2791.395418073806</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V23" t="n">
-        <v>2433.906003200055</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W23" t="n">
-        <v>2037.514653500402</v>
+        <v>1997.929848168443</v>
       </c>
       <c r="X23" t="n">
-        <v>1625.794654668149</v>
+        <v>1997.929848168443</v>
       </c>
       <c r="Y23" t="n">
-        <v>1610.109061032542</v>
+        <v>1592.592578123333</v>
       </c>
     </row>
     <row r="24">
@@ -6068,13 +6068,13 @@
         <v>80.29966308312362</v>
       </c>
       <c r="J24" t="n">
-        <v>421.7811819283253</v>
+        <v>421.7811819283255</v>
       </c>
       <c r="K24" t="n">
-        <v>569.5721362965736</v>
+        <v>569.5721362965737</v>
       </c>
       <c r="L24" t="n">
-        <v>775.8227259189734</v>
+        <v>775.8227259189736</v>
       </c>
       <c r="M24" t="n">
         <v>1019.652926874475</v>
@@ -6138,7 +6138,7 @@
         <v>433.9111452393198</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H25" t="n">
         <v>132.7632098856423</v>
@@ -6153,25 +6153,25 @@
         <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.1206864098697</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R25" t="n">
-        <v>2996.979054612796</v>
+        <v>2996.979054612795</v>
       </c>
       <c r="S25" t="n">
         <v>2842.53469238177</v>
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1567.165998222075</v>
+        <v>1740.404424113326</v>
       </c>
       <c r="C26" t="n">
-        <v>1140.265268235375</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="D26" t="n">
-        <v>716.9726474203756</v>
+        <v>1313.503694126626</v>
       </c>
       <c r="E26" t="n">
-        <v>716.9726474203756</v>
+        <v>887.5267542744834</v>
       </c>
       <c r="F26" t="n">
-        <v>291.8484656097758</v>
+        <v>462.4025724638836</v>
       </c>
       <c r="G26" t="n">
-        <v>291.8484656097758</v>
+        <v>60.07069108156194</v>
       </c>
       <c r="H26" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I26" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K26" t="n">
-        <v>658.7452452040868</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L26" t="n">
-        <v>931.2612537279188</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M26" t="n">
-        <v>1239.634105008736</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N26" t="n">
-        <v>1553.746495278727</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O26" t="n">
-        <v>1848.186938279251</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P26" t="n">
-        <v>2093.878631620213</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q26" t="n">
         <v>2762.403697278422</v>
@@ -6256,22 +6256,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>2732.766761627731</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="V26" t="n">
-        <v>2375.277346753981</v>
+        <v>2587.416482758272</v>
       </c>
       <c r="W26" t="n">
-        <v>1978.885997054328</v>
+        <v>2557.461692990688</v>
       </c>
       <c r="X26" t="n">
-        <v>1567.165998222075</v>
+        <v>2145.741694158435</v>
       </c>
       <c r="Y26" t="n">
-        <v>1567.165998222075</v>
+        <v>1740.404424113326</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>159.3389879233877</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965736</v>
+        <v>307.1299422916359</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189734</v>
+        <v>513.3805319140356</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>757.210732869537</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1009.835798503732</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1237.327662526591</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1416.768316177413</v>
       </c>
       <c r="Q27" t="n">
         <v>1791.049965673171</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.270461306219</v>
+        <v>1107.27046130622</v>
       </c>
       <c r="C28" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851355</v>
       </c>
       <c r="D28" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119062</v>
       </c>
       <c r="E28" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647598</v>
       </c>
       <c r="F28" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393203</v>
       </c>
       <c r="G28" t="n">
-        <v>268.554527843141</v>
+        <v>268.5545278431414</v>
       </c>
       <c r="H28" t="n">
-        <v>132.7632098856423</v>
+        <v>132.7632098856425</v>
       </c>
       <c r="I28" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="J28" t="n">
-        <v>102.0284782705196</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K28" t="n">
         <v>431.0790168988077</v>
@@ -6402,19 +6402,19 @@
         <v>2439.15846483653</v>
       </c>
       <c r="P28" t="n">
-        <v>2836.484215057984</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R28" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S28" t="n">
         <v>2842.53469238177</v>
       </c>
       <c r="T28" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U28" t="n">
         <v>2322.906966102196</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>695.9251649683972</v>
+        <v>739.714908284491</v>
       </c>
       <c r="C29" t="n">
-        <v>695.9251649683972</v>
+        <v>739.714908284491</v>
       </c>
       <c r="D29" t="n">
-        <v>695.9251649683972</v>
+        <v>739.714908284491</v>
       </c>
       <c r="E29" t="n">
-        <v>269.9482251162548</v>
+        <v>739.714908284491</v>
       </c>
       <c r="F29" t="n">
-        <v>60.07069108156194</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G29" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I29" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>596.1507915280422</v>
+        <v>596.1507915280426</v>
       </c>
       <c r="K29" t="n">
-        <v>810.9839034818381</v>
+        <v>810.9839034818384</v>
       </c>
       <c r="L29" t="n">
         <v>1083.49991200567</v>
@@ -6493,22 +6493,22 @@
         <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2944.905897632023</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U29" t="n">
-        <v>2686.711562710693</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V29" t="n">
-        <v>2329.222147836943</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W29" t="n">
-        <v>1932.83079813729</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X29" t="n">
-        <v>1521.110799305037</v>
+        <v>1308.971663300745</v>
       </c>
       <c r="Y29" t="n">
-        <v>1115.773529259927</v>
+        <v>903.6343932556357</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>421.7811819283253</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K30" t="n">
-        <v>569.5721362965736</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L30" t="n">
-        <v>775.8227259189734</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M30" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6621,25 +6621,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J31" t="n">
-        <v>102.0284782705196</v>
+        <v>179.9501949187404</v>
       </c>
       <c r="K31" t="n">
-        <v>431.0790168988077</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L31" t="n">
-        <v>916.9624006820206</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1446.473939781796</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1959.002117765196</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
-        <v>2439.15846483653</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P31" t="n">
-        <v>2836.484215057984</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q31" t="n">
         <v>3003.534554078097</v>
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1158.09843520526</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="C32" t="n">
-        <v>731.1977052185605</v>
+        <v>1611.776769379911</v>
       </c>
       <c r="D32" t="n">
-        <v>731.1977052185605</v>
+        <v>1188.484148564912</v>
       </c>
       <c r="E32" t="n">
-        <v>731.1977052185605</v>
+        <v>762.5072087127692</v>
       </c>
       <c r="F32" t="n">
-        <v>306.0735234079607</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G32" t="n">
-        <v>306.0735234079607</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
       </c>
       <c r="I32" t="n">
-        <v>101.7102154067077</v>
+        <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
         <v>239.551332392876</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466719</v>
+        <v>652.9110437734554</v>
       </c>
       <c r="L32" t="n">
-        <v>726.9004528705038</v>
+        <v>925.4270522972872</v>
       </c>
       <c r="M32" t="n">
-        <v>1035.273304151321</v>
+        <v>1233.799903578104</v>
       </c>
       <c r="N32" t="n">
-        <v>1349.385694421312</v>
+        <v>1547.912293848095</v>
       </c>
       <c r="O32" t="n">
-        <v>1643.826137421836</v>
+        <v>1842.352736848619</v>
       </c>
       <c r="P32" t="n">
-        <v>2093.878631620213</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q32" t="n">
         <v>2762.403697278422</v>
@@ -6727,25 +6727,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T32" t="n">
-        <v>2791.395418073806</v>
+        <v>2732.766761627731</v>
       </c>
       <c r="U32" t="n">
-        <v>2791.395418073806</v>
+        <v>2474.572426706402</v>
       </c>
       <c r="V32" t="n">
-        <v>2791.395418073806</v>
+        <v>2117.083011832651</v>
       </c>
       <c r="W32" t="n">
-        <v>2395.004068374153</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="X32" t="n">
-        <v>1983.2840695419</v>
+        <v>1720.691662132998</v>
       </c>
       <c r="Y32" t="n">
-        <v>1577.94679949679</v>
+        <v>1720.691662132998</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>80.29966308312362</v>
       </c>
       <c r="J33" t="n">
-        <v>421.7811819283253</v>
+        <v>159.3389879233877</v>
       </c>
       <c r="K33" t="n">
-        <v>569.5721362965736</v>
+        <v>307.1299422916359</v>
       </c>
       <c r="L33" t="n">
-        <v>775.8227259189734</v>
+        <v>513.3805319140356</v>
       </c>
       <c r="M33" t="n">
-        <v>1019.652926874475</v>
+        <v>757.210732869537</v>
       </c>
       <c r="N33" t="n">
-        <v>1272.27799250867</v>
+        <v>1009.835798503732</v>
       </c>
       <c r="O33" t="n">
-        <v>1499.76985653153</v>
+        <v>1237.327662526591</v>
       </c>
       <c r="P33" t="n">
-        <v>1679.210510182351</v>
+        <v>1416.768316177413</v>
       </c>
       <c r="Q33" t="n">
         <v>1791.049965673171</v>
@@ -6837,13 +6837,13 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851352</v>
+        <v>935.2978981851351</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119059</v>
+        <v>771.9811253119058</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647594</v>
+        <v>605.7729194647593</v>
       </c>
       <c r="F34" t="n">
         <v>433.9111452393198</v>
@@ -6858,7 +6858,7 @@
         <v>60.07069108156194</v>
       </c>
       <c r="J34" t="n">
-        <v>102.0284782705196</v>
+        <v>102.0284782705195</v>
       </c>
       <c r="K34" t="n">
         <v>431.0790168988077</v>
@@ -6876,13 +6876,13 @@
         <v>2439.15846483653</v>
       </c>
       <c r="P34" t="n">
-        <v>2836.484215057984</v>
+        <v>2836.484215057983</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="R34" t="n">
-        <v>2996.979054612795</v>
+        <v>2996.979054612796</v>
       </c>
       <c r="S34" t="n">
         <v>2842.53469238177</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1596.23804477034</v>
+        <v>1741.379565094871</v>
       </c>
       <c r="C35" t="n">
-        <v>1169.33731478364</v>
+        <v>1314.478835108171</v>
       </c>
       <c r="D35" t="n">
-        <v>746.0446939686403</v>
+        <v>891.1862142931711</v>
       </c>
       <c r="E35" t="n">
-        <v>320.0677541164978</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G35" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H35" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072047</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L35" t="n">
         <v>709.5851800848322</v>
@@ -6973,16 +6973,16 @@
         <v>2137.770914794524</v>
       </c>
       <c r="V35" t="n">
-        <v>1992.629394469993</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W35" t="n">
-        <v>1596.23804477034</v>
+        <v>1741.379565094871</v>
       </c>
       <c r="X35" t="n">
-        <v>1596.23804477034</v>
+        <v>1741.379565094871</v>
       </c>
       <c r="Y35" t="n">
-        <v>1596.23804477034</v>
+        <v>1741.379565094871</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>404.465909142654</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K36" t="n">
-        <v>552.2568635109022</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R36" t="n">
         <v>1815.649874842555</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.5068220226462</v>
+        <v>395.9511842536717</v>
       </c>
       <c r="C37" t="n">
-        <v>241.5068220226462</v>
+        <v>223.9786211325877</v>
       </c>
       <c r="D37" t="n">
-        <v>241.5068220226462</v>
+        <v>223.9786211325877</v>
       </c>
       <c r="E37" t="n">
-        <v>241.5068220226462</v>
+        <v>223.9786211325877</v>
       </c>
       <c r="F37" t="n">
-        <v>69.64504779720662</v>
+        <v>52.1168469071481</v>
       </c>
       <c r="G37" t="n">
         <v>42.75541829589048</v>
@@ -7101,19 +7101,19 @@
         <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>275.9756251911622</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M37" t="n">
-        <v>805.0739266028069</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.602104586207</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O37" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q37" t="n">
         <v>2137.770914794524</v>
@@ -7122,25 +7122,25 @@
         <v>2131.215415329222</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098196</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.278665192341</v>
+        <v>1891.723027423367</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818623</v>
+        <v>1611.587689049648</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426652</v>
+        <v>1329.876221657677</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991647</v>
+        <v>1055.02381783019</v>
       </c>
       <c r="X37" t="n">
-        <v>658.0155590449698</v>
+        <v>812.4599212759953</v>
       </c>
       <c r="Y37" t="n">
-        <v>431.6727907347118</v>
+        <v>586.1171529657373</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1741.379565094871</v>
+        <v>1717.922550502994</v>
       </c>
       <c r="C38" t="n">
-        <v>1571.669196165962</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D38" t="n">
-        <v>1148.376575350962</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E38" t="n">
-        <v>722.3996354988195</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F38" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H38" t="n">
         <v>42.75541829589048</v>
@@ -7177,22 +7177,22 @@
         <v>222.2360596072046</v>
       </c>
       <c r="K38" t="n">
-        <v>437.0691715610008</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848327</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.95803136565</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
         <v>2048.8787162726</v>
@@ -7213,13 +7213,13 @@
         <v>2137.770914794524</v>
       </c>
       <c r="W38" t="n">
-        <v>1741.379565094871</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="X38" t="n">
-        <v>1741.379565094871</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="Y38" t="n">
-        <v>1741.379565094871</v>
+        <v>2137.770914794524</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>404.465909142654</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K39" t="n">
-        <v>552.2568635109022</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L39" t="n">
-        <v>758.5074531333021</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M39" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>645.0705802731682</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C40" t="n">
-        <v>473.0980171520841</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="D40" t="n">
-        <v>473.0980171520841</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E40" t="n">
-        <v>306.8898113049377</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F40" t="n">
-        <v>135.0280370794981</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G40" t="n">
         <v>42.75541829589048</v>
@@ -7338,13 +7338,13 @@
         <v>166.4811349991142</v>
       </c>
       <c r="L40" t="n">
-        <v>481.8999867656338</v>
+        <v>652.3645187823272</v>
       </c>
       <c r="M40" t="n">
-        <v>1010.998288177278</v>
+        <v>1181.462820193972</v>
       </c>
       <c r="N40" t="n">
-        <v>1523.526466160679</v>
+        <v>1693.990998177372</v>
       </c>
       <c r="O40" t="n">
         <v>2003.682813232012</v>
@@ -7359,25 +7359,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S40" t="n">
-        <v>2137.770914794524</v>
+        <v>2121.853986717964</v>
       </c>
       <c r="T40" t="n">
-        <v>1898.278526888668</v>
+        <v>1882.361598812109</v>
       </c>
       <c r="U40" t="n">
-        <v>1618.14318851495</v>
+        <v>1602.226260438391</v>
       </c>
       <c r="V40" t="n">
-        <v>1336.431721122979</v>
+        <v>1320.51479304642</v>
       </c>
       <c r="W40" t="n">
-        <v>1061.579317295492</v>
+        <v>1045.662389218933</v>
       </c>
       <c r="X40" t="n">
-        <v>1061.579317295492</v>
+        <v>803.0984926647377</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.2365489852339</v>
+        <v>576.7557243544798</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1744.049890760332</v>
+        <v>1301.804479183169</v>
       </c>
       <c r="C41" t="n">
-        <v>1317.149160773633</v>
+        <v>1145.692256313819</v>
       </c>
       <c r="D41" t="n">
-        <v>893.8565399586328</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="E41" t="n">
-        <v>467.8796001064903</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589048</v>
+        <v>722.3996354988195</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589048</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H41" t="n">
         <v>42.75541829589048</v>
@@ -7426,10 +7426,10 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O41" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
         <v>2048.8787162726</v>
@@ -7438,25 +7438,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U41" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="V41" t="n">
-        <v>2137.770914794524</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="W41" t="n">
-        <v>2137.770914794524</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="X41" t="n">
-        <v>2137.770914794524</v>
+        <v>1721.652843474699</v>
       </c>
       <c r="Y41" t="n">
-        <v>2137.770914794524</v>
+        <v>1721.652843474699</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>62.98439029745215</v>
       </c>
       <c r="J42" t="n">
-        <v>404.4659091426541</v>
+        <v>142.0237151377162</v>
       </c>
       <c r="K42" t="n">
-        <v>552.2568635109023</v>
+        <v>289.8146695059644</v>
       </c>
       <c r="L42" t="n">
-        <v>758.5074531333022</v>
+        <v>496.0652591283642</v>
       </c>
       <c r="M42" t="n">
-        <v>1002.337654088804</v>
+        <v>739.8954600838656</v>
       </c>
       <c r="N42" t="n">
-        <v>1254.962719722999</v>
+        <v>992.5205257180611</v>
       </c>
       <c r="O42" t="n">
-        <v>1482.454583745858</v>
+        <v>1220.01238974092</v>
       </c>
       <c r="P42" t="n">
-        <v>1661.89523739668</v>
+        <v>1399.453043391742</v>
       </c>
       <c r="Q42" t="n">
         <v>1773.7346928875</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.5066837189733</v>
+        <v>386.589755642414</v>
       </c>
       <c r="C43" t="n">
-        <v>230.5341205978893</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="D43" t="n">
-        <v>230.5341205978893</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="E43" t="n">
-        <v>230.5341205978893</v>
+        <v>214.6171925213301</v>
       </c>
       <c r="F43" t="n">
-        <v>58.67234637244974</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G43" t="n">
-        <v>58.67234637244974</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H43" t="n">
         <v>42.75541829589048</v>
@@ -7569,25 +7569,25 @@
         <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K43" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L43" t="n">
-        <v>899.6471278963492</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M43" t="n">
-        <v>1015.623186533303</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N43" t="n">
-        <v>1528.151364516703</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O43" t="n">
-        <v>1690.926608658705</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P43" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q43" t="n">
         <v>2137.770914794524</v>
@@ -7596,25 +7596,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>2137.770914794524</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T43" t="n">
-        <v>1898.278526888668</v>
+        <v>1743.834164657643</v>
       </c>
       <c r="U43" t="n">
-        <v>1618.14318851495</v>
+        <v>1463.698826283925</v>
       </c>
       <c r="V43" t="n">
-        <v>1336.431721122979</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W43" t="n">
-        <v>1061.579317295492</v>
+        <v>907.1349550644663</v>
       </c>
       <c r="X43" t="n">
-        <v>819.0154207412969</v>
+        <v>664.5710585102714</v>
       </c>
       <c r="Y43" t="n">
-        <v>592.672652431039</v>
+        <v>438.2282902000135</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>894.7803300931902</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="C44" t="n">
-        <v>467.8796001064903</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="D44" t="n">
-        <v>467.8796001064903</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="E44" t="n">
-        <v>467.8796001064903</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="F44" t="n">
-        <v>42.75541829589048</v>
+        <v>661.7298888086069</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589048</v>
+        <v>259.3980074262852</v>
       </c>
       <c r="H44" t="n">
         <v>42.75541829589048</v>
@@ -7675,25 +7675,25 @@
         <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2137.770914794524</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>2116.357314129483</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U44" t="n">
-        <v>2116.357314129483</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V44" t="n">
-        <v>2116.357314129483</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="W44" t="n">
-        <v>1719.96596442983</v>
+        <v>1067.067158853717</v>
       </c>
       <c r="X44" t="n">
-        <v>1719.96596442983</v>
+        <v>1067.067158853717</v>
       </c>
       <c r="Y44" t="n">
-        <v>1314.62869438472</v>
+        <v>661.7298888086069</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>404.4659091426541</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K45" t="n">
-        <v>552.2568635109023</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L45" t="n">
-        <v>758.5074531333022</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M45" t="n">
-        <v>1002.337654088804</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1254.962719722999</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1482.454583745858</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
         <v>1815.649874842555</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.9511842536717</v>
+        <v>751.8852084479616</v>
       </c>
       <c r="C46" t="n">
-        <v>223.9786211325877</v>
+        <v>579.9126453268776</v>
       </c>
       <c r="D46" t="n">
-        <v>223.9786211325877</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9786211325877</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F46" t="n">
-        <v>52.1168469071481</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G46" t="n">
-        <v>42.75541829589048</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H46" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I46" t="n">
         <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K46" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L46" t="n">
-        <v>481.8999867656338</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M46" t="n">
-        <v>1010.998288177278</v>
+        <v>1093.544903181524</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.526466160679</v>
+        <v>1208.040158323044</v>
       </c>
       <c r="O46" t="n">
-        <v>2003.682813232012</v>
+        <v>1539.553111280806</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880159</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q46" t="n">
         <v>2137.770914794524</v>
@@ -7833,25 +7833,25 @@
         <v>2131.215415329222</v>
       </c>
       <c r="S46" t="n">
-        <v>2131.215415329222</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T46" t="n">
-        <v>1891.723027423367</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U46" t="n">
-        <v>1611.587689049648</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V46" t="n">
-        <v>1329.876221657677</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="W46" t="n">
-        <v>1055.02381783019</v>
+        <v>1220.791873312415</v>
       </c>
       <c r="X46" t="n">
-        <v>812.4599212759953</v>
+        <v>978.2279767582196</v>
       </c>
       <c r="Y46" t="n">
-        <v>586.1171529657373</v>
+        <v>751.8852084479616</v>
       </c>
     </row>
   </sheetData>
@@ -8768,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>265.0931252575127</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>265.093125257513</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8853,22 +8853,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.757680064977691</v>
+        <v>417.2951947219102</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O13" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>108.1301643813463</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>265.0931252575122</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>261.0326869852848</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>417.2951947219104</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N16" t="n">
         <v>402.0534574160406</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>108.1301643813465</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>265.0931252575128</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.2951947219102</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>165.7705156158943</v>
       </c>
       <c r="Q19" t="n">
-        <v>129.295600935607</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>265.0931252575128</v>
+        <v>265.0931252575131</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>209.3311033197063</v>
       </c>
       <c r="P22" t="n">
-        <v>296.8103824110301</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>307.5560500126507</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>461.3324725154296</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>265.0931252575128</v>
+        <v>265.093125257513</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>267.2984471422153</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
         <v>417.7126065281028</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891722</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>206.4250513711262</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>307.556050012651</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9956,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.7189728340888</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>360.2014738739052</v>
+        <v>360.2014738739056</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>265.0931252575128</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.7189728340888</v>
+        <v>40.01016813891722</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>200.5319186129127</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10366,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>206.4250513711265</v>
+        <v>502.710210902391</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>265.0931252575128</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.7189728340888</v>
+        <v>118.7189728340893</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>265.0931252575128</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M37" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>120.70402416815</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>265.0931252575128</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>208.0044056307794</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.2951947219103</v>
@@ -10995,7 +10995,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>209.331103319707</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11229,16 +11229,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>60.93052664027446</v>
+        <v>231.372656757204</v>
       </c>
       <c r="P43" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>265.0931252575131</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>208.0044056307794</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219103</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>231.372656757204</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23263,19 +23263,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>185.0570250242654</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.04236988161364</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>92.22751005703248</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.1655904527782</v>
+        <v>109.6026973896768</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
-        <v>71.96559361603953</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.489944470648567</v>
       </c>
       <c r="S13" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>71.65058827884741</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161364</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>177.6590280839302</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>166.8482154560435</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71.96559361603953</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>5.644235000933463</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23743,13 +23743,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.0177446442482</v>
@@ -23791,13 +23791,13 @@
         <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
-        <v>317.6861322237197</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>212.0534564951256</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>140.328813654194</v>
       </c>
       <c r="F19" t="n">
-        <v>100.6043326500507</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
         <v>71.96559361603954</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
         <v>152.8999186087154</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>383.3684111655153</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>341.1063311186636</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24028,16 +24028,16 @@
         <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>49.65804855259055</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>137.1421598129216</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>274.4658041750902</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>385.7551596454068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>45.0792156794696</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
         <v>255.612391572116</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>362.7721943327485</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>253.3695905271815</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -24688,16 +24688,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>213.0941812981478</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,7 +24733,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>314.8059788612771</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>30.99640845926652</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.04236988161365</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.643622408807005</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T35" t="n">
         <v>210.0177446442482</v>
@@ -25213,7 +25213,7 @@
         <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
-        <v>210.2244156037275</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>137.082318015914</v>
+        <v>154.4352368970719</v>
       </c>
       <c r="H37" t="n">
         <v>134.4334047779237</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>254.6184574472129</v>
+        <v>25.86606685476522</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161365</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
         <v>210.0177446442482</v>
@@ -25453,7 +25453,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25557,13 +25557,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>72.35315862644541</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
         <v>134.4334047779237</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648567</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
-        <v>152.8999186087154</v>
+        <v>137.1421598129215</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>25.86606685476517</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>268.0806220461766</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>210.0177446442482</v>
@@ -25687,7 +25687,7 @@
         <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>137.1421598129216</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>118.6756459821301</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
         <v>71.96559361603954</v>
@@ -25836,7 +25836,7 @@
         <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25876,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>60.06304922331049</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>188.8182799858576</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>154.4352368970719</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>38.11594081806584</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>310281.3524714921</v>
+        <v>310281.352471492</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>310281.3524714921</v>
+        <v>310281.352471492</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>310281.3524714921</v>
+        <v>310281.352471492</v>
       </c>
     </row>
     <row r="9">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>310281.3524714921</v>
+        <v>310281.352471492</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>516381.4902713695</v>
       </c>
       <c r="C2" t="n">
-        <v>516381.4902713694</v>
+        <v>516381.4902713695</v>
       </c>
       <c r="D2" t="n">
         <v>516381.4902713695</v>
@@ -26325,37 +26325,37 @@
         <v>307066.8426620589</v>
       </c>
       <c r="F2" t="n">
-        <v>307066.8426620587</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="G2" t="n">
         <v>307066.8426620588</v>
       </c>
       <c r="H2" t="n">
-        <v>307066.842662059</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="I2" t="n">
-        <v>385385.0750974005</v>
+        <v>385385.0750974004</v>
       </c>
       <c r="J2" t="n">
-        <v>385385.0750974003</v>
+        <v>385385.0750974004</v>
       </c>
       <c r="K2" t="n">
         <v>385385.0750974004</v>
       </c>
       <c r="L2" t="n">
-        <v>385385.0750974004</v>
+        <v>385385.0750974002</v>
       </c>
       <c r="M2" t="n">
         <v>307066.8426620589</v>
       </c>
       <c r="N2" t="n">
-        <v>307066.8426620589</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="O2" t="n">
-        <v>307066.8426620589</v>
+        <v>307066.8426620588</v>
       </c>
       <c r="P2" t="n">
-        <v>307066.8426620589</v>
+        <v>307066.8426620588</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222538</v>
+        <v>556689.6559222537</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048181</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160778</v>
+        <v>79247.32527160773</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>322739.0782821833</v>
       </c>
       <c r="E4" t="n">
+        <v>20716.52783166093</v>
+      </c>
+      <c r="F4" t="n">
         <v>20716.52783166094</v>
       </c>
-      <c r="F4" t="n">
-        <v>20716.52783166092</v>
-      </c>
       <c r="G4" t="n">
-        <v>20716.52783166094</v>
+        <v>20716.52783166093</v>
       </c>
       <c r="H4" t="n">
         <v>20716.52783166093</v>
       </c>
       <c r="I4" t="n">
-        <v>60803.91340972754</v>
+        <v>60803.91340972756</v>
       </c>
       <c r="J4" t="n">
-        <v>60803.91340972753</v>
+        <v>60803.91340972757</v>
       </c>
       <c r="K4" t="n">
-        <v>60803.91340972754</v>
+        <v>60803.91340972757</v>
       </c>
       <c r="L4" t="n">
-        <v>60803.91340972755</v>
+        <v>60803.91340972756</v>
       </c>
       <c r="M4" t="n">
         <v>20716.52783166094</v>
       </c>
       <c r="N4" t="n">
-        <v>20716.52783166093</v>
+        <v>20716.52783166094</v>
       </c>
       <c r="O4" t="n">
         <v>20716.52783166094</v>
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>43269.71441650126</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="F5" t="n">
-        <v>43269.71441650126</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="G5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="H5" t="n">
-        <v>43269.71441650125</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="I5" t="n">
         <v>56429.32173361156</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160014.8119891862</v>
+        <v>159993.0983476898</v>
       </c>
       <c r="C6" t="n">
-        <v>160014.8119891862</v>
+        <v>159993.0983476898</v>
       </c>
       <c r="D6" t="n">
-        <v>160014.8119891863</v>
+        <v>159993.0983476898</v>
       </c>
       <c r="E6" t="n">
-        <v>-313609.0555083571</v>
+        <v>-314212.1987265458</v>
       </c>
       <c r="F6" t="n">
-        <v>243080.6004138966</v>
+        <v>242477.4571957078</v>
       </c>
       <c r="G6" t="n">
-        <v>243080.6004138969</v>
+        <v>242477.4571957077</v>
       </c>
       <c r="H6" t="n">
-        <v>243080.6004138968</v>
+        <v>242477.4571957077</v>
       </c>
       <c r="I6" t="n">
-        <v>210595.6567735796</v>
+        <v>210210.0642010443</v>
       </c>
       <c r="J6" t="n">
-        <v>268151.8399540613</v>
+        <v>267766.2473815261</v>
       </c>
       <c r="K6" t="n">
-        <v>268151.8399540613</v>
+        <v>267766.2473815261</v>
       </c>
       <c r="L6" t="n">
-        <v>268151.8399540613</v>
+        <v>267766.2473815259</v>
       </c>
       <c r="M6" t="n">
-        <v>163833.275142289</v>
+        <v>163230.1319241001</v>
       </c>
       <c r="N6" t="n">
-        <v>243080.6004138967</v>
+        <v>242477.4571957078</v>
       </c>
       <c r="O6" t="n">
-        <v>243080.6004138967</v>
+        <v>242477.4571957078</v>
       </c>
       <c r="P6" t="n">
-        <v>243080.6004138967</v>
+        <v>242477.4571957077</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644263</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="F3" t="n">
-        <v>494.2934179644263</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="G3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="H3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="I3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="J3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="K3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="L3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="M3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2934179644262</v>
+        <v>494.2934179644261</v>
       </c>
       <c r="O3" t="n">
         <v>494.2934179644261</v>
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986311</v>
+        <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
-        <v>534.4427286986311</v>
+        <v>534.442728698631</v>
       </c>
       <c r="G4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="H4" t="n">
-        <v>534.442728698631</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="I4" t="n">
         <v>750.8836385195242</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>494.2934179644263</v>
+        <v>494.2934179644262</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986311</v>
+        <v>534.442728698631</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208935</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777378</v>
+        <v>318.0018188777376</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986311</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,25 +31752,25 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H11" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I11" t="n">
-        <v>76.60802812491879</v>
+        <v>76.60802812491877</v>
       </c>
       <c r="J11" t="n">
-        <v>168.6534109867668</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K11" t="n">
-        <v>252.767744182482</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L11" t="n">
         <v>313.580737911241</v>
       </c>
       <c r="M11" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N11" t="n">
         <v>354.564865531407</v>
@@ -31779,7 +31779,7 @@
         <v>334.8055482454421</v>
       </c>
       <c r="P11" t="n">
-        <v>285.7487894273647</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q11" t="n">
         <v>214.5854405596218</v>
@@ -31788,10 +31788,10 @@
         <v>124.822749411891</v>
       </c>
       <c r="S11" t="n">
-        <v>45.28125130397736</v>
+        <v>45.28125130397734</v>
       </c>
       <c r="T11" t="n">
-        <v>8.698570601564926</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U11" t="n">
         <v>0.1589687374357952</v>
@@ -31837,7 +31837,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I12" t="n">
-        <v>36.60569180208252</v>
+        <v>36.60569180208251</v>
       </c>
       <c r="J12" t="n">
         <v>100.4488161921859</v>
@@ -31846,25 +31846,25 @@
         <v>171.6830261244932</v>
       </c>
       <c r="L12" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M12" t="n">
-        <v>269.3899127906123</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N12" t="n">
-        <v>276.5198621874766</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O12" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P12" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q12" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R12" t="n">
-        <v>66.0114870255134</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S12" t="n">
         <v>19.74842099131456</v>
@@ -31873,7 +31873,7 @@
         <v>4.285430670842524</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06994718178741885</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8913487864932276</v>
+        <v>0.8913487864932275</v>
       </c>
       <c r="H13" t="n">
-        <v>7.924901029003429</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I13" t="n">
         <v>26.80528896108725</v>
       </c>
       <c r="J13" t="n">
-        <v>63.01835920507119</v>
+        <v>63.01835920507118</v>
       </c>
       <c r="K13" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L13" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M13" t="n">
-        <v>139.7229738682066</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N13" t="n">
         <v>136.4006738458228</v>
@@ -31940,19 +31940,19 @@
         <v>107.8045841409627</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.63830611262837</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R13" t="n">
-        <v>40.07828270905002</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S13" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T13" t="n">
-        <v>3.808490269561972</v>
+        <v>3.808490269561971</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04861902471781247</v>
+        <v>0.04861902471781246</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.987109217947441</v>
+        <v>1.98710921794744</v>
       </c>
       <c r="H14" t="n">
         <v>20.35048227830423</v>
       </c>
       <c r="I14" t="n">
-        <v>76.60802812491879</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J14" t="n">
-        <v>168.6534109867668</v>
+        <v>168.6534109867667</v>
       </c>
       <c r="K14" t="n">
-        <v>252.767744182482</v>
+        <v>252.7677441824819</v>
       </c>
       <c r="L14" t="n">
-        <v>313.5807379112411</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M14" t="n">
-        <v>348.9189914659138</v>
+        <v>348.9189914659137</v>
       </c>
       <c r="N14" t="n">
-        <v>354.5648655314071</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O14" t="n">
-        <v>334.8055482454422</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7487894273647</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q14" t="n">
-        <v>214.5854405596219</v>
+        <v>214.5854405596218</v>
       </c>
       <c r="R14" t="n">
-        <v>124.8227494118911</v>
+        <v>124.822749411891</v>
       </c>
       <c r="S14" t="n">
-        <v>45.28125130397736</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T14" t="n">
-        <v>8.698570601564928</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1589687374357953</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I15" t="n">
-        <v>36.60569180208253</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J15" t="n">
         <v>100.4488161921859</v>
       </c>
       <c r="K15" t="n">
-        <v>171.6830261244933</v>
+        <v>171.6830261244932</v>
       </c>
       <c r="L15" t="n">
-        <v>230.8490156257446</v>
+        <v>230.8490156257445</v>
       </c>
       <c r="M15" t="n">
-        <v>269.3899127906123</v>
+        <v>269.3899127906122</v>
       </c>
       <c r="N15" t="n">
-        <v>276.5198621874766</v>
+        <v>276.5198621874765</v>
       </c>
       <c r="O15" t="n">
-        <v>252.9616513614739</v>
+        <v>252.9616513614738</v>
       </c>
       <c r="P15" t="n">
-        <v>203.0240267107094</v>
+        <v>203.0240267107093</v>
       </c>
       <c r="Q15" t="n">
         <v>135.7161852494025</v>
       </c>
       <c r="R15" t="n">
-        <v>66.01148702551342</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S15" t="n">
-        <v>19.74842099131457</v>
+        <v>19.74842099131456</v>
       </c>
       <c r="T15" t="n">
-        <v>4.285430670842525</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06994718178741885</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,25 +32147,25 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8913487864932277</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H16" t="n">
-        <v>7.92490102900343</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I16" t="n">
-        <v>26.80528896108726</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J16" t="n">
-        <v>63.0183592050712</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K16" t="n">
         <v>103.5585226489404</v>
       </c>
       <c r="L16" t="n">
-        <v>132.5192550391841</v>
+        <v>132.519255039184</v>
       </c>
       <c r="M16" t="n">
-        <v>139.7229738682066</v>
+        <v>139.7229738682065</v>
       </c>
       <c r="N16" t="n">
         <v>136.4006738458228</v>
@@ -32174,22 +32174,22 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P16" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.63830611262837</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R16" t="n">
-        <v>40.07828270905003</v>
+        <v>40.07828270905001</v>
       </c>
       <c r="S16" t="n">
         <v>15.53377839734106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.808490269561972</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04861902471781248</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,7 +32232,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32241,16 +32241,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L17" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M17" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O17" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
         <v>285.7487894273646</v>
@@ -32262,7 +32262,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S17" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
         <v>8.698570601564924</v>
@@ -32311,7 +32311,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I18" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J18" t="n">
         <v>100.4488161921859</v>
@@ -32344,7 +32344,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T18" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
         <v>0.06994718178741882</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H19" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I19" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32411,7 +32411,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P19" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
         <v>74.63830611262834</v>
@@ -32423,10 +32423,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T19" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
@@ -32478,16 +32478,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L20" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M20" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O20" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
         <v>285.7487894273646</v>
@@ -32499,7 +32499,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S20" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
         <v>8.698570601564924</v>
@@ -32548,7 +32548,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I21" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J21" t="n">
         <v>100.4488161921859</v>
@@ -32581,7 +32581,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T21" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U21" t="n">
         <v>0.06994718178741882</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H22" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I22" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32648,7 +32648,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P22" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
         <v>74.63830611262834</v>
@@ -32660,10 +32660,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,7 +32706,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I23" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J23" t="n">
         <v>168.6534109867667</v>
@@ -32715,16 +32715,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L23" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M23" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N23" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O23" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P23" t="n">
         <v>285.7487894273646</v>
@@ -32736,7 +32736,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S23" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T23" t="n">
         <v>8.698570601564924</v>
@@ -32785,7 +32785,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I24" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J24" t="n">
         <v>100.4488161921859</v>
@@ -32818,7 +32818,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T24" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U24" t="n">
         <v>0.06994718178741882</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H25" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I25" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J25" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K25" t="n">
         <v>103.5585226489404</v>
@@ -32885,7 +32885,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P25" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q25" t="n">
         <v>74.63830611262834</v>
@@ -32897,10 +32897,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T25" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,7 +32943,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32952,16 +32952,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L26" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M26" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O26" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
         <v>285.7487894273646</v>
@@ -32973,7 +32973,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S26" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
         <v>8.698570601564924</v>
@@ -33022,7 +33022,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I27" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J27" t="n">
         <v>100.4488161921859</v>
@@ -33055,7 +33055,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T27" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U27" t="n">
         <v>0.06994718178741882</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H28" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I28" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33122,7 +33122,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P28" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
         <v>74.63830611262834</v>
@@ -33134,10 +33134,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,7 +33180,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33189,16 +33189,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L29" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M29" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O29" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
         <v>285.7487894273646</v>
@@ -33210,7 +33210,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S29" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
         <v>8.698570601564924</v>
@@ -33259,7 +33259,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I30" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J30" t="n">
         <v>100.4488161921859</v>
@@ -33292,7 +33292,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T30" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U30" t="n">
         <v>0.06994718178741882</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H31" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I31" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33359,7 +33359,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P31" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
         <v>74.63830611262834</v>
@@ -33371,10 +33371,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33426,16 +33426,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L32" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M32" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O32" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
         <v>285.7487894273646</v>
@@ -33447,7 +33447,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S32" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
         <v>8.698570601564924</v>
@@ -33496,7 +33496,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I33" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J33" t="n">
         <v>100.4488161921859</v>
@@ -33529,7 +33529,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T33" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U33" t="n">
         <v>0.06994718178741882</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H34" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33596,7 +33596,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P34" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
         <v>74.63830611262834</v>
@@ -33608,10 +33608,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,7 +33654,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I35" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J35" t="n">
         <v>168.6534109867667</v>
@@ -33663,16 +33663,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L35" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M35" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N35" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O35" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P35" t="n">
         <v>285.7487894273646</v>
@@ -33684,7 +33684,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S35" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T35" t="n">
         <v>8.698570601564924</v>
@@ -33733,7 +33733,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I36" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J36" t="n">
         <v>100.4488161921859</v>
@@ -33766,7 +33766,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T36" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U36" t="n">
         <v>0.06994718178741882</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H37" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I37" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J37" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K37" t="n">
         <v>103.5585226489404</v>
@@ -33833,7 +33833,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P37" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q37" t="n">
         <v>74.63830611262834</v>
@@ -33845,10 +33845,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T37" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,7 +33891,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I38" t="n">
-        <v>76.60802812491877</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J38" t="n">
         <v>168.6534109867667</v>
@@ -33900,16 +33900,16 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L38" t="n">
-        <v>313.580737911241</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M38" t="n">
         <v>348.9189914659137</v>
       </c>
       <c r="N38" t="n">
-        <v>354.564865531407</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O38" t="n">
-        <v>334.8055482454421</v>
+        <v>334.805548245442</v>
       </c>
       <c r="P38" t="n">
         <v>285.7487894273646</v>
@@ -33921,7 +33921,7 @@
         <v>124.822749411891</v>
       </c>
       <c r="S38" t="n">
-        <v>45.28125130397734</v>
+        <v>45.28125130397733</v>
       </c>
       <c r="T38" t="n">
         <v>8.698570601564924</v>
@@ -33970,7 +33970,7 @@
         <v>10.26824628639308</v>
       </c>
       <c r="I39" t="n">
-        <v>36.60569180208251</v>
+        <v>36.6056918020825</v>
       </c>
       <c r="J39" t="n">
         <v>100.4488161921859</v>
@@ -34003,7 +34003,7 @@
         <v>19.74842099131456</v>
       </c>
       <c r="T39" t="n">
-        <v>4.285430670842524</v>
+        <v>4.285430670842523</v>
       </c>
       <c r="U39" t="n">
         <v>0.06994718178741882</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8913487864932275</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H40" t="n">
         <v>7.924901029003427</v>
       </c>
       <c r="I40" t="n">
-        <v>26.80528896108725</v>
+        <v>26.80528896108724</v>
       </c>
       <c r="J40" t="n">
-        <v>63.01835920507118</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K40" t="n">
         <v>103.5585226489404</v>
@@ -34070,7 +34070,7 @@
         <v>125.9880993854246</v>
       </c>
       <c r="P40" t="n">
-        <v>107.8045841409627</v>
+        <v>107.8045841409626</v>
       </c>
       <c r="Q40" t="n">
         <v>74.63830611262834</v>
@@ -34082,10 +34082,10 @@
         <v>15.53377839734106</v>
       </c>
       <c r="T40" t="n">
-        <v>3.808490269561971</v>
+        <v>3.80849026956197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04861902471781246</v>
+        <v>0.04861902471781245</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>42.06012558095529</v>
+        <v>42.06012558095527</v>
       </c>
       <c r="J11" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K11" t="n">
-        <v>217.0031433876727</v>
+        <v>217.0031433876726</v>
       </c>
       <c r="L11" t="n">
-        <v>275.2686954786181</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M11" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664819</v>
       </c>
       <c r="N11" t="n">
-        <v>317.285242696961</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O11" t="n">
         <v>297.414588889418</v>
       </c>
       <c r="P11" t="n">
-        <v>248.1734276171334</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q11" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R11" t="n">
-        <v>89.79009951709457</v>
+        <v>89.79009951709455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.43330505208252</v>
+        <v>20.43330505208251</v>
       </c>
       <c r="J12" t="n">
-        <v>344.9308271163653</v>
+        <v>79.83770185885257</v>
       </c>
       <c r="K12" t="n">
-        <v>149.2837922911599</v>
+        <v>414.3769175486728</v>
       </c>
       <c r="L12" t="n">
         <v>208.333928911515</v>
@@ -35503,7 +35503,7 @@
         <v>255.1768339739349</v>
       </c>
       <c r="O12" t="n">
-        <v>229.7897616392517</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P12" t="n">
         <v>181.2531855058807</v>
@@ -35512,7 +35512,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R12" t="n">
-        <v>42.33856763136926</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
-        <v>332.3742814427154</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L13" t="n">
-        <v>490.7912967507202</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M13" t="n">
-        <v>119.9052140416984</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N13" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O13" t="n">
-        <v>485.0064111831651</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P13" t="n">
-        <v>401.3391416378324</v>
+        <v>193.5539478643225</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.01874334784343</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>42.06012558095529</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J14" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K14" t="n">
-        <v>217.0031433876727</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L14" t="n">
-        <v>275.2686954786182</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M14" t="n">
-        <v>311.487728566482</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N14" t="n">
-        <v>317.2852426969611</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O14" t="n">
-        <v>297.4145888894181</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P14" t="n">
-        <v>248.1734276171334</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q14" t="n">
         <v>178.4607659550238</v>
       </c>
       <c r="R14" t="n">
-        <v>89.79009951709457</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>20.43330505208252</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885261</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K15" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M15" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N15" t="n">
-        <v>520.269959231447</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O15" t="n">
-        <v>229.7897616392517</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P15" t="n">
         <v>181.2531855058807</v>
@@ -35749,7 +35749,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R15" t="n">
-        <v>42.33856763136927</v>
+        <v>42.33856763136924</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K16" t="n">
-        <v>332.3742814427154</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L16" t="n">
-        <v>371.6331821287677</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M16" t="n">
-        <v>534.4427286986311</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N16" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O16" t="n">
-        <v>103.4889118870002</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P16" t="n">
-        <v>85.42378348297622</v>
+        <v>193.5539478643227</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.01874334784343</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K17" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M17" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O17" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
         <v>248.1734276171333</v>
@@ -35907,7 +35907,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R17" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J18" t="n">
-        <v>344.9308271163654</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K18" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N18" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
         <v>229.7897616392516</v>
@@ -35986,7 +35986,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>82.5938681962284</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M19" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N19" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O19" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P19" t="n">
-        <v>85.42378348297618</v>
+        <v>251.1942990988705</v>
       </c>
       <c r="Q19" t="n">
-        <v>179.3143442834503</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K20" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L20" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O20" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
         <v>248.1734276171333</v>
@@ -36144,7 +36144,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J21" t="n">
-        <v>344.9308271163654</v>
+        <v>344.9308271163657</v>
       </c>
       <c r="K21" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L21" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M21" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N21" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O21" t="n">
         <v>229.7897616392516</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>121.0904079163419</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K22" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L22" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M22" t="n">
-        <v>117.1475339767207</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N22" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O22" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067064</v>
       </c>
       <c r="P22" t="n">
-        <v>382.2341658940063</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q22" t="n">
         <v>50.0187433478434</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J23" t="n">
         <v>534.9195310038328</v>
       </c>
       <c r="K23" t="n">
-        <v>217.0031433876726</v>
+        <v>524.5591934003232</v>
       </c>
       <c r="L23" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M23" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O23" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P23" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q23" t="n">
-        <v>639.7932384704534</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709455</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J24" t="n">
-        <v>344.9308271163654</v>
+        <v>344.9308271163655</v>
       </c>
       <c r="K24" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L24" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M24" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N24" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O24" t="n">
         <v>229.7897616392516</v>
@@ -36521,10 +36521,10 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
-        <v>377.8989422856981</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M25" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N25" t="n">
         <v>517.705230286263</v>
@@ -36533,10 +36533,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P25" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K26" t="n">
-        <v>423.4281947587988</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L26" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O26" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q26" t="n">
-        <v>675.2778440992007</v>
+        <v>486.0168159676748</v>
       </c>
       <c r="R26" t="n">
         <v>243.5665220198734</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885257</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K27" t="n">
-        <v>414.3769175486727</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M27" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N27" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O27" t="n">
         <v>229.7897616392516</v>
@@ -36694,7 +36694,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.969146960424</v>
+        <v>378.0622722179372</v>
       </c>
       <c r="R27" t="n">
         <v>42.33856763136924</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.38160322116931</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K28" t="n">
         <v>332.3742814427153</v>
@@ -36761,7 +36761,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N28" t="n">
         <v>517.705230286263</v>
@@ -36770,10 +36770,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P28" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
-        <v>168.7377161819322</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J29" t="n">
-        <v>499.4349253750854</v>
+        <v>499.4349253750858</v>
       </c>
       <c r="K29" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O29" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
         <v>248.1734276171333</v>
@@ -36855,7 +36855,7 @@
         <v>675.2778440992007</v>
       </c>
       <c r="R29" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>344.9308271163654</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K30" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L30" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M30" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N30" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O30" t="n">
         <v>229.7897616392516</v>
@@ -36934,7 +36934,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.38160322116931</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K31" t="n">
         <v>332.3742814427153</v>
@@ -36998,7 +36998,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
         <v>517.705230286263</v>
@@ -37007,10 +37007,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P31" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q31" t="n">
-        <v>168.7377161819322</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J32" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K32" t="n">
-        <v>217.0031433876726</v>
+        <v>417.5350620005852</v>
       </c>
       <c r="L32" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O32" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>454.5984789882598</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="Q32" t="n">
-        <v>675.2778440992007</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R32" t="n">
         <v>243.5665220198734</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.43330505208251</v>
+        <v>20.4333050520825</v>
       </c>
       <c r="J33" t="n">
-        <v>344.9308271163654</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K33" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L33" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M33" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N33" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
         <v>229.7897616392516</v>
@@ -37168,7 +37168,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.969146960424</v>
+        <v>378.0622722179372</v>
       </c>
       <c r="R33" t="n">
         <v>42.33856763136924</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.38160322116931</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K34" t="n">
         <v>332.3742814427153</v>
@@ -37235,7 +37235,7 @@
         <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
-        <v>534.8601405048236</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
         <v>517.705230286263</v>
@@ -37244,10 +37244,10 @@
         <v>485.006411183165</v>
       </c>
       <c r="P34" t="n">
-        <v>401.3391416378324</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>168.7377161819322</v>
+        <v>168.7377161819327</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,25 +37302,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J35" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K35" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L35" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O35" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P35" t="n">
         <v>248.1734276171333</v>
@@ -37329,7 +37329,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R35" t="n">
-        <v>89.79009951709449</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>344.9308271163654</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K36" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L36" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M36" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N36" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O36" t="n">
         <v>229.7897616392516</v>
@@ -37408,7 +37408,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.38160322116931</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K37" t="n">
-        <v>82.5938681962284</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L37" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M37" t="n">
         <v>534.442728698631</v>
@@ -37478,13 +37478,13 @@
         <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
-        <v>224.1929360551501</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378324</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06012558095527</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J38" t="n">
         <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876726</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
         <v>275.268695478618</v>
       </c>
       <c r="M38" t="n">
-        <v>311.4877285664819</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N38" t="n">
         <v>317.2852426969609</v>
       </c>
       <c r="O38" t="n">
-        <v>297.414588889418</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P38" t="n">
         <v>248.1734276171333</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550244</v>
       </c>
       <c r="R38" t="n">
-        <v>89.79009951709455</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.43330505208251</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>344.9308271163654</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K39" t="n">
-        <v>149.2837922911599</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L39" t="n">
-        <v>208.333928911515</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M39" t="n">
-        <v>246.2931322782843</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N39" t="n">
-        <v>255.1768339739349</v>
+        <v>255.1768339739348</v>
       </c>
       <c r="O39" t="n">
         <v>229.7897616392516</v>
@@ -37645,7 +37645,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.38160322116931</v>
+        <v>42.3816032211693</v>
       </c>
       <c r="K40" t="n">
-        <v>82.5938681962284</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L40" t="n">
-        <v>318.6049007742622</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
         <v>534.442728698631</v>
@@ -37715,10 +37715,10 @@
         <v>517.705230286263</v>
       </c>
       <c r="O40" t="n">
-        <v>485.006411183165</v>
+        <v>312.8200152067071</v>
       </c>
       <c r="P40" t="n">
-        <v>85.42378348297618</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q40" t="n">
         <v>50.0187433478434</v>
@@ -37791,7 +37791,7 @@
         <v>311.4877285664818</v>
       </c>
       <c r="N41" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969615</v>
       </c>
       <c r="O41" t="n">
         <v>297.4145888894179</v>
@@ -37803,7 +37803,7 @@
         <v>178.4607659550238</v>
       </c>
       <c r="R41" t="n">
-        <v>89.79009951709496</v>
+        <v>89.79009951709452</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J42" t="n">
-        <v>344.9308271163657</v>
+        <v>79.83770185885255</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37879,7 +37879,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>112.969146960424</v>
+        <v>378.0622722179372</v>
       </c>
       <c r="R42" t="n">
         <v>42.33856763136924</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K43" t="n">
         <v>332.3742814427153</v>
@@ -37949,16 +37949,16 @@
         <v>117.1475339767207</v>
       </c>
       <c r="N43" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O43" t="n">
-        <v>164.4194385272746</v>
+        <v>334.8615686442041</v>
       </c>
       <c r="P43" t="n">
         <v>401.3391416378323</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>344.9308271163657</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
@@ -38119,7 +38119,7 @@
         <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K46" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L46" t="n">
-        <v>318.6049007742622</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M46" t="n">
-        <v>534.442728698631</v>
+        <v>117.1475339767207</v>
       </c>
       <c r="N46" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O46" t="n">
-        <v>485.006411183165</v>
+        <v>334.8615686442041</v>
       </c>
       <c r="P46" t="n">
-        <v>85.42378348297616</v>
+        <v>401.3391416378323</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
